--- a/golf_streamlit/data/baneinfo.xlsx
+++ b/golf_streamlit/data/baneinfo.xlsx
@@ -1,47 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c624kh1\Documents\My Projects\golf_streamlit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c624kh1\Documents\My Projects\min_git\golf_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4BEBE2-7062-4AE0-9B06-FA0E49965CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF387D10-4003-41A6-8813-F323D9C41665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="13044" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="201_Miklagaard" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Par</t>
-  </si>
-  <si>
-    <t>Index</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t>Bane</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>AntallHull</t>
+  </si>
+  <si>
+    <t>TotaltPar</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Bjørnefjorden</t>
+  </si>
+  <si>
+    <t>Fana</t>
+  </si>
+  <si>
+    <t>Voss</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Sotra</t>
+  </si>
+  <si>
+    <t>Meland</t>
+  </si>
+  <si>
+    <t>Herdla</t>
+  </si>
+  <si>
+    <t>Haugaland</t>
+  </si>
+  <si>
+    <t>Franklin Hills CC</t>
+  </si>
+  <si>
+    <t>St Andrews – Old</t>
+  </si>
+  <si>
+    <t>St Andrews – Castle</t>
+  </si>
+  <si>
+    <t>Crans-sur-Sierre (Ballesteros)</t>
+  </si>
+  <si>
+    <t>Payne’s Valley</t>
+  </si>
+  <si>
+    <t>Miklagard</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -59,7 +106,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,9 +170,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +210,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +279,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,24 +456,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,217 +477,211 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
       <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
+      <c r="B14" t="s">
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
